--- a/results/aucs/degree_centrality/aucs_degree_centrality_results_analysis.xlsx
+++ b/results/aucs/degree_centrality/aucs_degree_centrality_results_analysis.xlsx
@@ -83,13 +83,13 @@
     <t>['U123']</t>
   </si>
   <si>
-    <t>['U124', 'U3', 'U79', 'U54', 'U109']</t>
+    <t>['U109', 'U124', 'U54', 'U3', 'U79']</t>
   </si>
   <si>
     <t>['U124', 'U99']</t>
   </si>
   <si>
-    <t>['U3', 'U79', 'U99', 'U54', 'U109']</t>
+    <t>['U109', 'U54', 'U3', 'U79', 'U99']</t>
   </si>
   <si>
     <t>['U130']</t>
@@ -98,13 +98,13 @@
     <t>['U62']</t>
   </si>
   <si>
-    <t>['U62', 'U130']</t>
+    <t>['U130', 'U62']</t>
   </si>
   <si>
     <t>['U76']</t>
   </si>
   <si>
-    <t>['U67', 'U110', 'U79', 'U54', 'U47', 'U91', 'U130']</t>
+    <t>['U130', 'U54', 'U47', 'U67', 'U79', 'U91', 'U110']</t>
   </si>
   <si>
     <t>['U37']</t>
@@ -113,10 +113,10 @@
     <t>['U13']</t>
   </si>
   <si>
-    <t>['U10', 'U42', 'U123']</t>
-  </si>
-  <si>
-    <t>['U10', 'U42']</t>
+    <t>['U42', 'U123', 'U10']</t>
+  </si>
+  <si>
+    <t>['U42', 'U10']</t>
   </si>
   <si>
     <t>['U68']</t>
@@ -125,13 +125,13 @@
     <t>['U4']</t>
   </si>
   <si>
-    <t>['U4', 'U68']</t>
-  </si>
-  <si>
-    <t>['U118', 'U106', 'U41', 'U47']</t>
-  </si>
-  <si>
-    <t>['U142', 'U123']</t>
+    <t>['U68', 'U4']</t>
+  </si>
+  <si>
+    <t>['U106', 'U47', 'U118', 'U41']</t>
+  </si>
+  <si>
+    <t>['U123', 'U142']</t>
   </si>
   <si>
     <t>['U142']</t>
@@ -158,22 +158,22 @@
     <t>['U10']</t>
   </si>
   <si>
-    <t>['U14', 'U1', 'U17', 'U19', 'U73']</t>
+    <t>['U19', 'U73', 'U17', 'U14', 'U1']</t>
   </si>
   <si>
     <t>['U91']</t>
   </si>
   <si>
-    <t>['U134', 'U18', 'U62']</t>
-  </si>
-  <si>
-    <t>['U4', 'U118', 'U123']</t>
-  </si>
-  <si>
-    <t>['U126', 'U76', 'U6', 'U79', 'U109']</t>
-  </si>
-  <si>
-    <t>['U3', 'U54']</t>
+    <t>['U134', 'U62', 'U18']</t>
+  </si>
+  <si>
+    <t>['U123', 'U4', 'U118']</t>
+  </si>
+  <si>
+    <t>['U109', 'U79', 'U126', 'U76', 'U6']</t>
+  </si>
+  <si>
+    <t>['U54', 'U3']</t>
   </si>
 </sst>
 </file>
